--- a/JVM/类与字节码加载篇/常量类型和结构.xlsx
+++ b/JVM/类与字节码加载篇/常量类型和结构.xlsx
@@ -4,21 +4,20 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9347"/>
+    <workbookView windowWidth="22368" windowHeight="9347" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
-  <si>
-    <t>常量类型和结构</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="82">
+  <si>
+    <t>常量类型和结构（14个）</t>
   </si>
   <si>
     <t>标志</t>
@@ -52,6 +51,216 @@
   </si>
   <si>
     <t>值为1</t>
+  </si>
+  <si>
+    <t>length</t>
+  </si>
+  <si>
+    <t>u2</t>
+  </si>
+  <si>
+    <t>UTF-8编码的字符串占用的字符数</t>
+  </si>
+  <si>
+    <t>bytes</t>
+  </si>
+  <si>
+    <t>长度为length的UTF-8编码的字符串</t>
+  </si>
+  <si>
+    <t>CONSTANT_Integer_info</t>
+  </si>
+  <si>
+    <t>整型字面量</t>
+  </si>
+  <si>
+    <t>值为3</t>
+  </si>
+  <si>
+    <t>u4</t>
+  </si>
+  <si>
+    <t>按照高位在前存储的int值</t>
+  </si>
+  <si>
+    <t>CONSTANT_Float_info</t>
+  </si>
+  <si>
+    <t>浮点型字面量</t>
+  </si>
+  <si>
+    <t>值为4</t>
+  </si>
+  <si>
+    <t>按照高位在前存储的float值</t>
+  </si>
+  <si>
+    <t>CONSTANT_Long_info</t>
+  </si>
+  <si>
+    <t>长整型字面量</t>
+  </si>
+  <si>
+    <t>值为5</t>
+  </si>
+  <si>
+    <t>u8</t>
+  </si>
+  <si>
+    <t>按照高位在前存储的long值</t>
+  </si>
+  <si>
+    <t>CONSTANT_Double_info</t>
+  </si>
+  <si>
+    <t>双精度浮点型字面量</t>
+  </si>
+  <si>
+    <t>值为6</t>
+  </si>
+  <si>
+    <t>按照高位在前存储的double值</t>
+  </si>
+  <si>
+    <t>CONSTANT_Class_info</t>
+  </si>
+  <si>
+    <t>类或接口的符号引用</t>
+  </si>
+  <si>
+    <t>值为7</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>指向全限定名常量项的索引</t>
+  </si>
+  <si>
+    <t>CONSTANT_String_info</t>
+  </si>
+  <si>
+    <t>字符串类型字面量</t>
+  </si>
+  <si>
+    <t>值为8</t>
+  </si>
+  <si>
+    <t>指向字符串字面量的索引</t>
+  </si>
+  <si>
+    <t>CONSTANT_Fieldref_info</t>
+  </si>
+  <si>
+    <t>字段的符号引用</t>
+  </si>
+  <si>
+    <t>值为9</t>
+  </si>
+  <si>
+    <t>指向声明字段的类或接口描述符CONSTANT_Class_info的索引项</t>
+  </si>
+  <si>
+    <t>指向字段描述符CONSTANT_NameAndType的索引项</t>
+  </si>
+  <si>
+    <t>CONSTANT_Methodref_info</t>
+  </si>
+  <si>
+    <t>类中方法的符号引用</t>
+  </si>
+  <si>
+    <t>值为10</t>
+  </si>
+  <si>
+    <t>指向声明方法的类描述符CONSTANT_Class_info的索引项</t>
+  </si>
+  <si>
+    <t>指向名称及类型描述符CONSTANT_NameAndType的索引项</t>
+  </si>
+  <si>
+    <t>CONSTANT_InterfaceMethodref_info</t>
+  </si>
+  <si>
+    <t>接口中方法的符号引用</t>
+  </si>
+  <si>
+    <t>值为11</t>
+  </si>
+  <si>
+    <t>指向声明方法的接口描述符CONSTANT_Class_info的索引项</t>
+  </si>
+  <si>
+    <t>CONSTANT_NameAndType_info</t>
+  </si>
+  <si>
+    <t>字段或方法的符号引用</t>
+  </si>
+  <si>
+    <t>值为12</t>
+  </si>
+  <si>
+    <t>指向该字段或方法名称常量项的索引</t>
+  </si>
+  <si>
+    <t>指向该字段或方法描述符常量项的索引</t>
+  </si>
+  <si>
+    <t>CONSTANT_MethodHandle_info</t>
+  </si>
+  <si>
+    <t>表示方法句柄</t>
+  </si>
+  <si>
+    <t>值为15</t>
+  </si>
+  <si>
+    <t>reference_kind</t>
+  </si>
+  <si>
+    <t>必须在1-9之间，它决定了方法句柄的类型方法句柄类型的值表示方法句柄的字节码行为</t>
+  </si>
+  <si>
+    <t>reference_index</t>
+  </si>
+  <si>
+    <t>值必须是对常量池的有效索引</t>
+  </si>
+  <si>
+    <t>CONSTANT_MethodType_info</t>
+  </si>
+  <si>
+    <t>标志方法类型</t>
+  </si>
+  <si>
+    <t>值为16</t>
+  </si>
+  <si>
+    <t>descriptor_index</t>
+  </si>
+  <si>
+    <t>值必须是对常量池的有效索引，常量池在该索引处的项必须是CONSTANT_Utf8_info结构，表示方法的描述符</t>
+  </si>
+  <si>
+    <t>CONSTANT_InvokeDynamic_info</t>
+  </si>
+  <si>
+    <t>表示一个动态方法调用点</t>
+  </si>
+  <si>
+    <t>值为18</t>
+  </si>
+  <si>
+    <t>bootstrap_method_attr</t>
+  </si>
+  <si>
+    <t>值必须是对当前Class文件中引导方法表的bootstrap_methods[]数组的有效索引</t>
+  </si>
+  <si>
+    <t>name_and_type_index</t>
+  </si>
+  <si>
+    <t>值必须是对常量池的有效索引，常量池在该索引处的项必须是CONSTANT_NameAndType_info结构，表示方法名和方法描述符</t>
   </si>
 </sst>
 </file>
@@ -59,12 +268,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -79,19 +288,63 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -103,15 +356,8 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -126,7 +372,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -134,37 +380,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -178,48 +393,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -229,8 +415,24 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="33">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -239,37 +441,217 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -279,152 +661,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -433,26 +671,28 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -460,38 +700,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -514,19 +724,62 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -535,160 +788,187 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1038,110 +1318,674 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C1:H11"/>
+  <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12:B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="3" width="9" style="1"/>
-    <col min="4" max="4" width="26.9444444444444" style="1" customWidth="1"/>
-    <col min="5" max="5" width="22.8333333333333" style="1" customWidth="1"/>
-    <col min="6" max="7" width="9" style="1"/>
+    <col min="1" max="1" width="7.71296296296296" style="1" customWidth="1"/>
+    <col min="2" max="2" width="37.6851851851852" style="1" customWidth="1"/>
+    <col min="3" max="3" width="23.287037037037" style="1" customWidth="1"/>
+    <col min="4" max="4" width="22.6759259259259" style="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42592592592593" style="1" customWidth="1"/>
+    <col min="6" max="6" width="33.4722222222222" style="2" customWidth="1"/>
+    <col min="7" max="7" width="9" style="1"/>
     <col min="8" max="8" width="39.9166666666667" style="1" customWidth="1"/>
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:3">
-      <c r="C1" s="1" t="s">
+    <row r="1" spans="1:6">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="3:8">
-      <c r="C2" s="1" t="s">
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="4"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="B2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="C2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="D2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="E2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="F2" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" ht="15" spans="3:8">
-      <c r="C3" s="1">
+    <row r="3" spans="1:6">
+      <c r="A3" s="7">
         <v>1</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="B3" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="C3" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="D3" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="E3" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="F3" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="3:3">
-      <c r="C4" s="1">
+    <row r="4" spans="1:6">
+      <c r="A4" s="7"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="7"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="7">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="3:3">
-      <c r="C5" s="1">
+      <c r="B6" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="7"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="7">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="3:3">
-      <c r="C6" s="1">
+      <c r="B8" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="7"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="7">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="3:3">
-      <c r="C7" s="1">
+      <c r="B10" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="7"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="7">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="3:3">
-      <c r="C8" s="1">
+      <c r="B12" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="7"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="7">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="3:3">
-      <c r="C9" s="1">
+      <c r="B14" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="7"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="7">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="3:3">
-      <c r="C10" s="1">
+      <c r="B16" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D16" s="10" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="3:3">
-      <c r="C11" s="1">
+      <c r="E16" s="11" t="s">
         <v>10</v>
       </c>
+      <c r="F16" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="7"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="7">
+        <v>9</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" ht="28.8" spans="1:6">
+      <c r="A19" s="7"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" ht="28.8" spans="1:6">
+      <c r="A20" s="7"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="7">
+        <v>10</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="22" ht="28.8" spans="1:6">
+      <c r="A22" s="7"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E22" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="23" ht="28.8" spans="1:6">
+      <c r="A23" s="7"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E23" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="7">
+        <v>11</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E24" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="25" ht="28.8" spans="1:6">
+      <c r="A25" s="7"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E25" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="26" ht="28.8" spans="1:6">
+      <c r="A26" s="7"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E26" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="7">
+        <v>12</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E27" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="7"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E28" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="29" ht="28.8" spans="1:6">
+      <c r="A29" s="7"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E29" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="7">
+        <v>15</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D30" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E30" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="31" ht="43.2" spans="1:6">
+      <c r="A31" s="7"/>
+      <c r="B31" s="8"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="E31" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="7"/>
+      <c r="B32" s="8"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="E32" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="7">
+        <v>16</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="D33" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E33" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="34" ht="57.6" spans="1:6">
+      <c r="A34" s="7"/>
+      <c r="B34" s="8"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="E34" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="7">
+        <v>18</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="D35" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E35" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="36" ht="43.2" spans="1:6">
+      <c r="A36" s="7"/>
+      <c r="B36" s="8"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="E36" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="37" ht="57.6" spans="1:6">
+      <c r="A37" s="7"/>
+      <c r="B37" s="8"/>
+      <c r="C37" s="9"/>
+      <c r="D37" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="E37" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>81</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="C1:H1"/>
+  <mergeCells count="43">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="A24:A26"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="A30:A32"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="A35:A37"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="B30:B32"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="B35:B37"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="C18:C20"/>
+    <mergeCell ref="C21:C23"/>
+    <mergeCell ref="C24:C26"/>
+    <mergeCell ref="C27:C29"/>
+    <mergeCell ref="C30:C32"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="C35:C37"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1154,31 +1998,13 @@
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
   <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
 </file>